--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6034577630182498</v>
+        <v>0.5801838068376468</v>
       </c>
       <c r="C11" t="n">
-        <v>1.955075890066712</v>
+        <v>1.894382994937527</v>
       </c>
       <c r="D11" t="n">
-        <v>3.465644218095235</v>
+        <v>3.315149452253955</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5801838068376468</v>
+        <v>0.5940398403859838</v>
       </c>
       <c r="C11" t="n">
-        <v>1.894382994937527</v>
+        <v>1.9535009569687</v>
       </c>
       <c r="D11" t="n">
-        <v>3.315149452253955</v>
+        <v>3.444970488924278</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5940398403859838</v>
+        <v>0.604868215631077</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9535009569687</v>
+        <v>1.949250364625227</v>
       </c>
       <c r="D11" t="n">
-        <v>3.444970488924278</v>
+        <v>3.417493498665935</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.604868215631077</v>
+        <v>0.6059991877515976</v>
       </c>
       <c r="C11" t="n">
-        <v>1.949250364625227</v>
+        <v>1.965428923509465</v>
       </c>
       <c r="D11" t="n">
-        <v>3.417493498665935</v>
+        <v>3.698045067321059</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6059991877515976</v>
+        <v>0.5884199446778341</v>
       </c>
       <c r="C11" t="n">
-        <v>1.965428923509465</v>
+        <v>1.930143150699428</v>
       </c>
       <c r="D11" t="n">
-        <v>3.698045067321059</v>
+        <v>3.199860851221799</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5884199446778341</v>
+        <v>0.6053592376838007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.930143150699428</v>
+        <v>1.964445291198996</v>
       </c>
       <c r="D11" t="n">
-        <v>3.199860851221799</v>
+        <v>3.415864453690883</v>
       </c>
     </row>
     <row r="12">
